--- a/biology/Zoologie/Astrobunus/Astrobunus.xlsx
+++ b/biology/Zoologie/Astrobunus/Astrobunus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astrobunus est un genre d'opilions eupnois de la famille des Sclerosomatidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (17/05/2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (17/05/2021) :
 Astrobunus bavaricus Roewer, 1957
 Astrobunus bernardinus Simon, 1879
 Astrobunus dinaricus Roewer, 1915
@@ -584,7 +600,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Thorell, 1876 : « Sopra alcuni Opilioni (Phalangidea) d'Europa e dell' Asia occidentale, con un quadro dei generi europei di quest' Ordine. » Annali del Museo Civico di Storia Naturale di Genova, vol. 8, p. 452–508 (texte intégral).
 L. Koch, 1869 : « Beitrag zur Kenntniss der Arachnidenfauna Tirols. » Zeitschrift des Ferdinandeums für Tirol und Vorarlberg, sér. 3, vol. 14, p. 149–206.</t>
